--- a/02-comparing-distributions.xlsx
+++ b/02-comparing-distributions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/kwn5_cdc_gov/Documents/Trainings/2026_EIS-Training/ggplot2-tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{A8E2706A-995A-439C-8C95-805F1B73F281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{569C0080-AE66-4E9D-96B1-BD7F4A49C753}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{A8E2706A-995A-439C-8C95-805F1B73F281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D98F605-ECC3-4F8F-A977-2EA701C00C8B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{FCD4951C-F66D-4A0C-9534-E4EDBEEE42D9}"/>
+    <workbookView xWindow="36150" yWindow="-4680" windowWidth="27630" windowHeight="17730" xr2:uid="{FCD4951C-F66D-4A0C-9534-E4EDBEEE42D9}"/>
   </bookViews>
   <sheets>
     <sheet name="1-data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3769,16 +3769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>525644</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449444</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>81506</xdr:rowOff>
+      <xdr:rowOff>157706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80827</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>175532</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>553267</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>68852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3805,16 +3805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>55246</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>125422</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62866</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>573133</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435973</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6508</xdr:rowOff>
+      <xdr:rowOff>82708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3829,8 +3829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7335067" y="4901529"/>
-          <a:ext cx="5416459" cy="1296229"/>
+          <a:off x="5328286" y="5139382"/>
+          <a:ext cx="5394687" cy="1344126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4179,7 +4179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CC2B7BD-BEAA-444A-9A58-FBF3EEBFBFC2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CC2B7BD-BEAA-444A-9A58-FBF3EEBFBFC2}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -4268,7 +4268,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E724A560-F615-43B4-B6E4-417B8CDDFBFA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E724A560-F615-43B4-B6E4-417B8CDDFBFA}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C761A64-154A-43F4-B758-A10E92E53B01}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4975,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC146168-6FDB-4CA7-85A2-B54A4ED12D67}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:I39"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
